--- a/medicine/Psychotrope/Vougeot/Vougeot.xlsx
+++ b/medicine/Psychotrope/Vougeot/Vougeot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vougeot est une commune française située à 19 km au sud de Dijon et 5 km au nord de Nuits-Saint-Georges dans le département de la Côte-d'Or en région Bourgogne-Franche-Comté.
@@ -516,10 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communes limitrophes
-Climat
-En 2010, le climat de la commune est de type climat océanique dégradé des plaines du Centre et du Nord, selon une étude du Centre national de la recherche scientifique s'appuyant sur une série de données couvrant la période 1971-2000[1]. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est exposée à un climat océanique altéré et est dans la région climatique  Bourgogne, vallée de la Saône, caractérisée par un bon ensoleillement (1 900 h/an), un été chaud (18,5 °C), un air sec au printemps et en été et des vents faibles[2]. 
-Pour la période 1971-2000, la température annuelle moyenne est de 11 °C, avec une amplitude thermique annuelle de 17,7 °C. Le cumul annuel moyen de précipitations est de 756 mm, avec 11,1 jours de précipitations en janvier et 7,2 jours en juillet[1]. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique de Météo-France la plus proche, « Saint-Nic. Citeaux », sur la commune de Saint-Nicolas-lès-Cîteaux à 10 km à vol d'oiseau[3], est de 11,2 °C et le cumul annuel moyen de précipitations est de 813,8 mm[4],[5]. Pour l'avenir, les paramètres climatiques de la commune estimés pour 2050 selon différents scénarios d'émission de gaz à effet de serre sont consultables sur un site dédié publié par Météo-France en novembre 2022[6].
+          <t>Communes limitrophes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -545,17 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Urbanisme</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Typologie
-Vougeot est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 1],[7],[8],[9].
-Par ailleurs la commune fait partie de l'aire d'attraction de Dijon, dont elle est une commune de la couronne[Note 2]. Cette aire, qui regroupe 333 communes, est catégorisée dans les aires de 200 000 à moins de 700 000 habitants[10],[11].
-Occupation des sols
-L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (82,9 % en 2018), une proportion identique à celle de 1990 (82,9 %). La répartition détaillée en 2018 est la suivante : 
-cultures permanentes (81,9 %), zones urbanisées (17,1 %), terres arables (1 %)[12]. L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, le climat de la commune est de type climat océanique dégradé des plaines du Centre et du Nord, selon une étude du Centre national de la recherche scientifique s'appuyant sur une série de données couvrant la période 1971-2000. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est exposée à un climat océanique altéré et est dans la région climatique  Bourgogne, vallée de la Saône, caractérisée par un bon ensoleillement (1 900 h/an), un été chaud (18,5 °C), un air sec au printemps et en été et des vents faibles. 
+Pour la période 1971-2000, la température annuelle moyenne est de 11 °C, avec une amplitude thermique annuelle de 17,7 °C. Le cumul annuel moyen de précipitations est de 756 mm, avec 11,1 jours de précipitations en janvier et 7,2 jours en juillet. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique de Météo-France la plus proche, « Saint-Nic. Citeaux », sur la commune de Saint-Nicolas-lès-Cîteaux à 10 km à vol d'oiseau, est de 11,2 °C et le cumul annuel moyen de précipitations est de 813,8 mm,. Pour l'avenir, les paramètres climatiques de la commune estimés pour 2050 selon différents scénarios d'émission de gaz à effet de serre sont consultables sur un site dédié publié par Météo-France en novembre 2022.
 </t>
         </is>
       </c>
@@ -581,10 +598,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Urbanisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vougeot est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 1].
+Par ailleurs la commune fait partie de l'aire d'attraction de Dijon, dont elle est une commune de la couronne[Note 2]. Cette aire, qui regroupe 333 communes, est catégorisée dans les aires de 200 000 à moins de 700 000 habitants,.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,13 +636,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Toponymie</t>
+          <t>Urbanisme</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attesté sous la forme « Voget », du gaulois « *uo-ceton » (« sous-bois »)[13].
-Le nom de la commune de Vougeot (et donc de son vignoble) vient de la Vouge, la rivière qui la traverse
+          <t>Occupation des sols</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (82,9 % en 2018), une proportion identique à celle de 1990 (82,9 %). La répartition détaillée en 2018 est la suivante : 
+cultures permanentes (81,9 %), zones urbanisées (17,1 %), terres arables (1 %). L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
 </t>
         </is>
       </c>
@@ -639,15 +674,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Politique et administration</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,15 +702,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Démographie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation[14]. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2004[15].
-En 2021, la commune comptait 155 habitants[Note 3], en diminution de 12,43 % par rapport à 2015 (Côte-d'Or : +0,44 %, France hors Mayotte : +1,84 %).
-De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999[16] puis Insee à partir de 2006[17].)
-Histogramme de l'évolution démographique</t>
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attesté sous la forme « Voget », du gaulois « *uo-ceton » (« sous-bois »).
+Le nom de la commune de Vougeot (et donc de son vignoble) vient de la Vouge, la rivière qui la traverse
+</t>
         </is>
       </c>
     </row>
@@ -703,10 +736,80 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vougeot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vougeot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Démographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2004.
+En 2021, la commune comptait 155 habitants[Note 3], en diminution de 12,43 % par rapport à 2015 (Côte-d'Or : +0,44 %, France hors Mayotte : +1,84 %).
+De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999 puis Insee à partir de 2006.)
+Histogramme de l'évolution démographique</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vougeot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vougeot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Lieux, monuments et folklore</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Château du Clos de Vougeot.
 Confrérie des Chevaliers du Tastevin.
@@ -715,31 +818,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Vougeot</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vougeot</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vougeot</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vougeot</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
